--- a/final/data.xlsx
+++ b/final/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="11950" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="x86" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>问题规模</t>
   </si>
   <si>
     <t>x86串行</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Pthread</t>
+  </si>
+  <si>
+    <t>openmp</t>
+  </si>
+  <si>
+    <t>mpi</t>
+  </si>
+  <si>
+    <t>GPU</t>
   </si>
   <si>
     <t>arm串行</t>
@@ -44,11 +62,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -653,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +680,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,97 +996,541 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="11.7272727272727" style="2"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="11.7272727272727" style="1"/>
+    <col min="4" max="4" width="10.5454545454545" style="1"/>
+    <col min="5" max="6" width="11.7272727272727" style="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="9.54545454545454" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>32</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="C2" s="2">
+        <v>0.004</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.003</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.083</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.193</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.0456</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.291072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>64</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.325</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="C3" s="2">
+        <v>0.018</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.014</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.743</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.07717</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.597056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2.188</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="C4" s="2">
+        <v>0.122</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.094</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.895</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11.189</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.21366</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.3792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>256</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>15.568</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="C5" s="2">
+        <v>1.076</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.652</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.261</v>
+      </c>
+      <c r="F5" s="1">
+        <v>23.393</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.18161</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.2239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>512</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>140.059</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="C6" s="2">
+        <v>8.516</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.634</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18.328</v>
+      </c>
+      <c r="F6" s="1">
+        <v>46.415</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13.0117</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17.1272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>1024</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1139.062</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="C7" s="2">
+        <v>65.033</v>
+      </c>
+      <c r="D7" s="2">
+        <v>46.612</v>
+      </c>
+      <c r="E7" s="1">
+        <v>70.068</v>
+      </c>
+      <c r="F7" s="1">
+        <v>120.592</v>
+      </c>
+      <c r="G7" s="1">
+        <v>80.6078</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50.1558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>2048</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9196.672</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="C8" s="2">
+        <v>1537.806</v>
+      </c>
+      <c r="D8" s="2">
+        <v>507.91</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1335.012</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1500.11</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1644.52</v>
+      </c>
+      <c r="H8" s="1">
+        <v>172.323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>4096</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>68115.675</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="C9" s="1">
+        <v>16924.36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9312.651</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18291.63</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19719.157</v>
+      </c>
+      <c r="G9" s="1">
+        <v>18095.8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>644.931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8192</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>537561.435</v>
+      </c>
+      <c r="C10" s="1">
+        <v>142130.013</v>
+      </c>
+      <c r="D10" s="1">
+        <v>84905.539</v>
+      </c>
+      <c r="E10" s="1">
+        <v>165252.816</v>
+      </c>
+      <c r="F10" s="1">
+        <v>163513.256</v>
+      </c>
+      <c r="G10" s="1">
+        <v>161622</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2394.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13.3333</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.037</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.0125</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.8772</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.1374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="C15" s="1">
+        <v>18.0556</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23.2143</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1868</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.054</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.2108</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.5443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>128</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="C16" s="1">
+        <v>17.9344</v>
+      </c>
+      <c r="D16" s="1">
+        <v>23.2766</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.7559</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.0196</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10.2454</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.6475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>256</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14.4643</v>
+      </c>
+      <c r="D17" s="1">
+        <v>23.8811</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.4875</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.6669</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13.171</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>512</v>
+      </c>
+      <c r="B18" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16.4466</v>
+      </c>
+      <c r="D18" s="1">
+        <v>24.8673</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.6525</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.0047</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10.7614</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8.1776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17.5153</v>
+      </c>
+      <c r="D19" s="1">
+        <v>24.4386</v>
+      </c>
+      <c r="E19" s="1">
+        <v>16.2229</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9.4582</v>
+      </c>
+      <c r="G19" s="1">
+        <v>14.1412</v>
+      </c>
+      <c r="H19" s="1">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.9835</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.4701</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.9058</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6.1243</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.5925</v>
+      </c>
+      <c r="H20" s="1">
+        <v>53.3688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>4096</v>
+      </c>
+      <c r="B21" s="1">
+        <v>68115.675</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.9973</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.3241</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.4352</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.6378</v>
+      </c>
+      <c r="H21" s="1">
+        <v>105.617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>8192</v>
+      </c>
+      <c r="B22" s="1">
+        <v>537561.435</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.781</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.3261</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.2537</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.2871</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.2971</v>
+      </c>
+      <c r="H22" s="1">
+        <v>224.5</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1545,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1094,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/final/data.xlsx
+++ b/final/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>问题规模</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>GPU</t>
+  </si>
+  <si>
+    <t>串行</t>
+  </si>
+  <si>
+    <t>策略B</t>
+  </si>
+  <si>
+    <t>策略B加速比</t>
+  </si>
+  <si>
+    <t>策略B+GPU回代</t>
+  </si>
+  <si>
+    <t>策略B+GPU回代加速比</t>
   </si>
   <si>
     <t>arm串行</t>
@@ -672,12 +687,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -996,13 +1008,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="11.7272727272727" style="1"/>
@@ -1010,10 +1022,13 @@
     <col min="5" max="6" width="11.7272727272727" style="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9.54545454545454" style="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11.7272727272727" style="1"/>
+    <col min="14" max="16" width="9.54545454545454" style="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,18 +1053,36 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>0.04</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.004</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.003</v>
       </c>
       <c r="E2" s="1">
@@ -1064,18 +1097,36 @@
       <c r="H2" s="1">
         <v>0.291072</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="L2" s="1">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.291072</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.1374</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.716448</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.0558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>64</v>
       </c>
       <c r="B3" s="1">
         <v>0.325</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.018</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.014</v>
       </c>
       <c r="E3" s="1">
@@ -1090,18 +1141,36 @@
       <c r="H3" s="1">
         <v>0.597056</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="L3" s="1">
+        <v>64</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.597056</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.5443</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3.81859</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.0851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>128</v>
       </c>
       <c r="B4" s="1">
         <v>2.188</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.122</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.094</v>
       </c>
       <c r="E4" s="1">
@@ -1116,18 +1185,36 @@
       <c r="H4" s="1">
         <v>3.3792</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="L4" s="1">
+        <v>128</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.3792</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.6475</v>
+      </c>
+      <c r="P4" s="1">
+        <v>8.6999</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.2515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>256</v>
       </c>
       <c r="B5" s="1">
         <v>15.568</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1.076</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.652</v>
       </c>
       <c r="E5" s="1">
@@ -1142,18 +1229,36 @@
       <c r="H5" s="1">
         <v>5.2239</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="L5" s="1">
+        <v>256</v>
+      </c>
+      <c r="M5" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5.2239</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="P5" s="1">
+        <v>28.9451</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.5378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>512</v>
       </c>
       <c r="B6" s="1">
         <v>140.059</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>8.516</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>5.634</v>
       </c>
       <c r="E6" s="1">
@@ -1168,18 +1273,36 @@
       <c r="H6" s="1">
         <v>17.1272</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="L6" s="1">
+        <v>512</v>
+      </c>
+      <c r="M6" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="N6" s="1">
+        <v>17.1272</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8.1776</v>
+      </c>
+      <c r="P6" s="1">
+        <v>111.593</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1.2554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>1024</v>
       </c>
       <c r="B7" s="1">
         <v>1139.062</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>65.033</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>46.612</v>
       </c>
       <c r="E7" s="1">
@@ -1194,24 +1317,42 @@
       <c r="H7" s="1">
         <v>50.1558</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="L7" s="1">
+        <v>1024</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="N7" s="1">
+        <v>50.1558</v>
+      </c>
+      <c r="O7" s="1">
+        <v>22.71</v>
+      </c>
+      <c r="P7" s="1">
+        <v>531.303</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2.1433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>2048</v>
       </c>
       <c r="B8" s="1">
         <v>9196.672</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1537.806</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>507.91</v>
       </c>
       <c r="E8" s="1">
         <v>1335.012</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1500.11</v>
       </c>
       <c r="G8" s="1">
@@ -1220,8 +1361,26 @@
       <c r="H8" s="1">
         <v>172.323</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="L8" s="1">
+        <v>2048</v>
+      </c>
+      <c r="M8" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="N8" s="1">
+        <v>172.323</v>
+      </c>
+      <c r="O8" s="1">
+        <v>53.3688</v>
+      </c>
+      <c r="P8" s="1">
+        <v>660.494</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>13.9266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -1246,8 +1405,26 @@
       <c r="H9" s="1">
         <v>644.931</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="L9" s="1">
+        <v>4096</v>
+      </c>
+      <c r="M9" s="1">
+        <v>68115.675</v>
+      </c>
+      <c r="N9" s="1">
+        <v>644.931</v>
+      </c>
+      <c r="O9" s="1">
+        <v>105.617</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1110.23</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>61.3682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8192</v>
       </c>
@@ -1271,6 +1448,24 @@
       </c>
       <c r="H10" s="1">
         <v>2394.45</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8192</v>
+      </c>
+      <c r="M10" s="1">
+        <v>537561.435</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2394.45</v>
+      </c>
+      <c r="O10" s="1">
+        <v>224.5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2719.38</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>197.5926</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1560,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/final/data.xlsx
+++ b/final/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11950" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="x86" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>问题规模</t>
   </si>
@@ -68,6 +68,27 @@
   </si>
   <si>
     <t>策略B+GPU回代加速比</t>
+  </si>
+  <si>
+    <t>AVX加速比</t>
+  </si>
+  <si>
+    <t>SSE加速比</t>
+  </si>
+  <si>
+    <t>NEON加速比</t>
+  </si>
+  <si>
+    <t>neon</t>
+  </si>
+  <si>
+    <t>优化消去</t>
+  </si>
+  <si>
+    <t>优化回代</t>
+  </si>
+  <si>
+    <t>整体优化</t>
   </si>
   <si>
     <t>arm串行</t>
@@ -687,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +716,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,10 +1032,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1024,8 +1048,8 @@
     <col min="8" max="8" width="9.54545454545454" style="1"/>
     <col min="9" max="12" width="9" style="1"/>
     <col min="13" max="13" width="11.7272727272727" style="1"/>
-    <col min="14" max="16" width="9.54545454545454" style="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="14" max="17" width="9.54545454545454" style="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1468,7 +1492,7 @@
         <v>197.5926</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,8 +1517,20 @@
       <c r="H13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>32</v>
       </c>
@@ -1519,8 +1555,20 @@
       <c r="H14" s="1">
         <v>0.1374</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="L14" s="1">
+        <v>32</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>64</v>
       </c>
@@ -1545,8 +1593,20 @@
       <c r="H15" s="1">
         <v>0.5443</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="L15" s="1">
+        <v>64</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="O15">
+        <v>2.6875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>128</v>
       </c>
@@ -1571,8 +1631,20 @@
       <c r="H16" s="1">
         <v>0.6475</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="L16" s="1">
+        <v>128</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="O16">
+        <v>2.895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>256</v>
       </c>
@@ -1597,8 +1669,20 @@
       <c r="H17" s="1">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="L17" s="1">
+        <v>256</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="O17">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>512</v>
       </c>
@@ -1623,8 +1707,20 @@
       <c r="H18" s="1">
         <v>8.1776</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="L18" s="1">
+        <v>512</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="O18">
+        <v>3.017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>1024</v>
       </c>
@@ -1649,8 +1745,20 @@
       <c r="H19" s="1">
         <v>22.71</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="L19" s="1">
+        <v>1024</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2.18</v>
+      </c>
+      <c r="O19">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>2048</v>
       </c>
@@ -1675,8 +1783,20 @@
       <c r="H20" s="1">
         <v>53.3688</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="L20" s="1">
+        <v>2048</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="O20">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>4096</v>
       </c>
@@ -1701,8 +1821,9 @@
       <c r="H21" s="1">
         <v>105.617</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>8192</v>
       </c>
@@ -1727,6 +1848,280 @@
       <c r="H22" s="1">
         <v>224.5</v>
       </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="Q22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="12:21">
+      <c r="L23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="12:21">
+      <c r="L24" s="1">
+        <v>32</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="12:21">
+      <c r="L25" s="1">
+        <v>64</v>
+      </c>
+      <c r="M25" s="3">
+        <v>2.55</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1.04</v>
+      </c>
+      <c r="U25" s="3">
+        <v>2.6875</v>
+      </c>
+    </row>
+    <row r="26" spans="12:21">
+      <c r="L26" s="1">
+        <v>128</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2.81</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1.16</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="T26" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="U26" s="3">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="27" spans="12:21">
+      <c r="L27" s="1">
+        <v>256</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3.02</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="S27" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="U27" s="3">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="28" spans="12:21">
+      <c r="L28" s="1">
+        <v>512</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2.91</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="S28" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1.007</v>
+      </c>
+      <c r="U28" s="3">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="29" spans="12:21">
+      <c r="L29" s="1">
+        <v>1024</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1.14</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="S29" s="3">
+        <v>3.226</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="U29" s="3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="30" spans="12:21">
+      <c r="L30" s="1">
+        <v>2048</v>
+      </c>
+      <c r="M30" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="S30" s="3">
+        <v>2.83</v>
+      </c>
+      <c r="T30" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="U30" s="3">
+        <v>2.845</v>
+      </c>
+    </row>
+    <row r="31" spans="19:21">
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1755,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/final/data.xlsx
+++ b/final/data.xlsx
@@ -7,9 +7,8 @@
     <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
-    <sheet name="x86" sheetId="1" r:id="rId1"/>
-    <sheet name="arm" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="analyse" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>问题规模</t>
   </si>
@@ -91,7 +90,31 @@
     <t>整体优化</t>
   </si>
   <si>
+    <t>静+信</t>
+  </si>
+  <si>
+    <t>静+信+三</t>
+  </si>
+  <si>
+    <t>静+barrier</t>
+  </si>
+  <si>
+    <t>动态线程</t>
+  </si>
+  <si>
+    <t>pthread</t>
+  </si>
+  <si>
     <t>arm串行</t>
+  </si>
+  <si>
+    <t>openmp2</t>
+  </si>
+  <si>
+    <t>openmp4</t>
+  </si>
+  <si>
+    <t>openmp8</t>
   </si>
 </sst>
 </file>
@@ -105,13 +128,19 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -578,133 +607,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -718,7 +747,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1044,8 +1073,7 @@
     <col min="2" max="3" width="11.7272727272727" style="1"/>
     <col min="4" max="4" width="10.5454545454545" style="1"/>
     <col min="5" max="6" width="11.7272727272727" style="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.54545454545454" style="1"/>
+    <col min="7" max="8" width="9.54545454545454" style="1"/>
     <col min="9" max="12" width="9" style="1"/>
     <col min="13" max="13" width="11.7272727272727" style="1"/>
     <col min="14" max="17" width="9.54545454545454" style="1"/>
@@ -1823,7 +1851,7 @@
       </c>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>8192</v>
       </c>
@@ -1848,31 +1876,27 @@
       <c r="H22" s="1">
         <v>224.5</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="3"/>
       <c r="Q22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U22" s="3"/>
     </row>
     <row r="23" spans="12:21">
       <c r="L23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -1884,13 +1908,13 @@
       <c r="R23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="S23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="T23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1898,13 +1922,13 @@
       <c r="L24" s="1">
         <v>32</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="1">
         <v>1.94</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="1">
         <v>1</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="1">
         <v>1</v>
       </c>
       <c r="P24" s="1">
@@ -1916,13 +1940,13 @@
       <c r="R24" s="1">
         <v>1.23</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="1">
         <v>1.71</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="1">
         <v>1</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1930,13 +1954,13 @@
       <c r="L25" s="1">
         <v>64</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="1">
         <v>2.55</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="1">
         <v>1.08</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="1">
         <v>1.2</v>
       </c>
       <c r="P25" s="1">
@@ -1948,13 +1972,13 @@
       <c r="R25" s="1">
         <v>1.49</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="1">
         <v>2.46</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="1">
         <v>1.04</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="1">
         <v>2.6875</v>
       </c>
     </row>
@@ -1962,13 +1986,13 @@
       <c r="L26" s="1">
         <v>128</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
         <v>2.81</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="1">
         <v>0.97</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="1">
         <v>1.16</v>
       </c>
       <c r="P26" s="1">
@@ -1980,13 +2004,13 @@
       <c r="R26" s="1">
         <v>1.68</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="1">
         <v>2.73</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="1">
         <v>1.03</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="1">
         <v>2.89</v>
       </c>
     </row>
@@ -1994,13 +2018,13 @@
       <c r="L27" s="1">
         <v>256</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="1">
         <v>3.02</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="1">
         <v>0.99</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="1">
         <v>1.07</v>
       </c>
       <c r="P27" s="1">
@@ -2012,13 +2036,13 @@
       <c r="R27" s="1">
         <v>1.71</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="1">
         <v>2.88</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="1">
         <v>1.03</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="1">
         <v>2.98</v>
       </c>
     </row>
@@ -2026,13 +2050,13 @@
       <c r="L28" s="1">
         <v>512</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="1">
         <v>2.91</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="1">
         <v>0.87</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="1">
         <v>1.08</v>
       </c>
       <c r="P28" s="1">
@@ -2044,27 +2068,45 @@
       <c r="R28" s="1">
         <v>1.76</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="1">
         <v>2.98</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="1">
         <v>1.007</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="1">
         <v>3.02</v>
       </c>
     </row>
-    <row r="29" spans="12:21">
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="L29" s="1">
         <v>1024</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="1">
         <v>3.16</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="1">
         <v>0.9</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="1">
         <v>1.14</v>
       </c>
       <c r="P29" s="1">
@@ -2076,27 +2118,45 @@
       <c r="R29" s="1">
         <v>1.89</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="1">
         <v>3.226</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="1">
         <v>1.03</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="1">
         <v>3.25</v>
       </c>
     </row>
-    <row r="30" spans="12:21">
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.422</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.722</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.504</v>
+      </c>
+      <c r="F30" s="1">
+        <v>27.928</v>
+      </c>
       <c r="L30" s="1">
         <v>2048</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="1">
         <v>3.11</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="1">
         <v>0.93</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="1">
         <v>1.07</v>
       </c>
       <c r="P30" s="1">
@@ -2108,20 +2168,348 @@
       <c r="R30" s="1">
         <v>1.84</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="1">
         <v>2.83</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="1">
         <v>1.01</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="1">
         <v>2.845</v>
       </c>
     </row>
-    <row r="31" spans="19:21">
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.352</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.916</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.308</v>
+      </c>
+      <c r="F31" s="1">
+        <v>110.316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>128</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.311</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.383</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4.054</v>
+      </c>
+      <c r="F32" s="1">
+        <v>430.543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>256</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="C33" s="1">
+        <v>19.282</v>
+      </c>
+      <c r="D33" s="1">
+        <v>11.714</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7.573</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1785.005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>512</v>
+      </c>
+      <c r="B34" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="C34" s="1">
+        <v>54.636</v>
+      </c>
+      <c r="D34" s="1">
+        <v>27.668</v>
+      </c>
+      <c r="E34" s="1">
+        <v>21.054</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8359.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="C35" s="1">
+        <v>137.243</v>
+      </c>
+      <c r="D35" s="1">
+        <v>85.605</v>
+      </c>
+      <c r="E35" s="1">
+        <v>67.265</v>
+      </c>
+      <c r="F35" s="1">
+        <v>37027.523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1326.324</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1445.745</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1389.486</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.074</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.898</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.491</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2.839</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.239</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.394</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.573</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.026</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.465</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6.181</v>
+      </c>
+      <c r="E44" s="1">
+        <v>9.334</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.529</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2.204</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>256</v>
+      </c>
+      <c r="B45" s="1">
+        <v>35.565</v>
+      </c>
+      <c r="C45" s="1">
+        <v>9.257</v>
+      </c>
+      <c r="D45" s="1">
+        <v>20.293</v>
+      </c>
+      <c r="E45" s="1">
+        <v>26.307</v>
+      </c>
+      <c r="F45" s="1">
+        <v>19.199</v>
+      </c>
+      <c r="G45" s="1">
+        <v>111.64</v>
+      </c>
+      <c r="H45" s="1">
+        <v>7.648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>512</v>
+      </c>
+      <c r="B46" s="1">
+        <v>293.934</v>
+      </c>
+      <c r="C46" s="1">
+        <v>48.754</v>
+      </c>
+      <c r="D46" s="1">
+        <v>55.976</v>
+      </c>
+      <c r="E46" s="1">
+        <v>91.084</v>
+      </c>
+      <c r="F46" s="1">
+        <v>145.379</v>
+      </c>
+      <c r="G46" s="1">
+        <v>75.069</v>
+      </c>
+      <c r="H46" s="1">
+        <v>42.122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2415.255</v>
+      </c>
+      <c r="C47" s="1">
+        <v>724.775</v>
+      </c>
+      <c r="D47" s="1">
+        <v>390.778</v>
+      </c>
+      <c r="E47" s="1">
+        <v>291.638</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1156.866</v>
+      </c>
+      <c r="G47" s="1">
+        <v>580.655</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1017.428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B48" s="1">
+        <v>21009.373</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2772.837</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2101.476</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2032.767</v>
+      </c>
+      <c r="F48" s="1">
+        <v>9418.961</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4577.917</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2385.961</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,92 +2519,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="11.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="12.2727272727273" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>64</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>128</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>256</v>
-      </c>
-      <c r="B5" s="1">
-        <v>35.565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>512</v>
-      </c>
-      <c r="B6" s="1">
-        <v>293.934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>1024</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2415.255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>2048</v>
-      </c>
-      <c r="B8" s="1">
-        <v>21009.373</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
